--- a/medicine/Pharmacie/Classe_ATC_B05/Classe_ATC_B05.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_B05/Classe_ATC_B05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC B05, dénommée « Substituts du sang et solutions de perfusion », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QB05[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique B de la classification, intitulé « Sang et organes hématopoïétiques ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC B05, dénommée « Substituts du sang et solutions de perfusion », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QB05. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique B de la classification, intitulé « Sang et organes hématopoïétiques ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>B05AA Substituts du sang et fractions protéiques plasmatiques
-B05AA01 Albumine
+          <t>B05AA Substituts du sang et fractions protéiques plasmatiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>B05AA01 Albumine
 B05AA02 Autres fractions protéiques plasmatiques
 B05AA03 Substituts du sang fluorocarbonés
 B05AA05 Dextran
@@ -523,86 +540,198 @@
 B05AA08 Hémoglobine crosfumaril
 B05AA09 Hémoglobine raffimer
 B05AA10 Hémoglobine glutamer (bovine) (en)
-QB05AA91 Hémoglobine betafumaril (bovine)
-B05AX Autres dérivés du sang
-B05AX01 Érythrocytes
+QB05AA91 Hémoglobine betafumaril (bovine)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B05</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>B05A Sang et dérivés</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>B05AX Autres dérivés du sang</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>B05AX01 Érythrocytes
 B05AX02 Thrombocytes
 B05AX03 Plasma sanguin
 B05AX04 Cellules souches de sang de cordon ombilical</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_B05</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B05</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B05</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>B05B Solutions intraveineuses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>B05BA Solutions pour nutrition parentérale
-B05BA01 Acides aminés
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>B05BA Solutions pour nutrition parentérale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>B05BA01 Acides aminés
 B05BA02 Émulsions lipidiques
 B05BA03 Hydrates de carbone
 B05BA04 Hydrolysats de protéines
-B05BA10 Associations pour nutrition parentérale
-B05BB Solutions modifiant le bilan électrolytique
-B05BB01 Électrolytes
+B05BA10 Associations pour nutrition parentérale</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B05</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>B05B Solutions intraveineuses</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>B05BB Solutions modifiant le bilan électrolytique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>B05BB01 Électrolytes
 B05BB02 Électrolytes avec hydrates de carbone
 B05BB03 Trométamol
-B05BB04 Électrolytes en association
-B05BC Solutions produisant une diurèse osmotique
-B05BC01 Mannitol
+B05BB04 Électrolytes en association</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>B05B Solutions intraveineuses</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>B05BC Solutions produisant une diurèse osmotique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>B05BC01 Mannitol
 B05BC02 Urée</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classe_ATC_B05</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B05</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B05</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>B05C Solutions d'irrigation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>B05CA Anti-infectieux
-B05CA01 Cétylpyridinium
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>B05CA Anti-infectieux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>B05CA01 Cétylpyridinium
 B05CA02 Chlorhexidine
 B05CA03 Nitrofural (en)
 B05CA04 Sulfamétizol (en)
@@ -611,15 +740,83 @@
 B05CA07 Noxytioline (en)
 B05CA08 Éthacridine lactate (en)
 B05CA09 Néomycine
-B05CA10 Associations d'anti-infectieux pour irrigation
-B05CB Solutions salines
-B05CB01 Sodium chlorure
+B05CA10 Associations d'anti-infectieux pour irrigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B05</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>B05C Solutions d'irrigation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>B05CB Solutions salines</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>B05CB01 Sodium chlorure
 B05CB02 Sodium citrate
 B05CB03 Magnésium citrate
 B05CB04 Sodium bicarbonate
-B05CB10 Associations de solutions salines
-B05CX Autres solutions d'irrigation
-B05CX01 Glucose
+B05CB10 Associations de solutions salines</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B05</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>B05C Solutions d'irrigation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>B05CX Autres solutions d'irrigation</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>B05CX01 Glucose
 B05CX02 Sorbitol
 B05CX03 Glycine
 B05CX04 Mannitol
@@ -627,67 +824,111 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Classe_ATC_B05</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B05</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B05</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>B05D Solutions pour dialyse péritonéale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>B05DA Solutions isotoniques
-Compte notamment DPCA2, Extranéal, Gambrosol, Nutrinéal, Sélutrio, etc.
-B05DB Solutions hypertoniques
-Compte notamment Bicavéra, Dianéal PD4, DPCA17, DPCA3, Neutravéra, Physionéal, Sélutrio, etc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Classe_ATC_B05</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B05</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>B05DA Solutions isotoniques</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Compte notamment DPCA2, Extranéal, Gambrosol, Nutrinéal, Sélutrio, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B05</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>B05D Solutions pour dialyse péritonéale</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>B05DB Solutions hypertoniques</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Compte notamment Bicavéra, Dianéal PD4, DPCA17, DPCA3, Neutravéra, Physionéal, Sélutrio, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B05</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>B05X Additifs pour solutions intraveineuses</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>B05XA Solutions d'électrolytes
-B05XA01 Potassium chlorure
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>B05XA Solutions d'électrolytes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>B05XA01 Potassium chlorure
 B05XA02 Sodium bicarbonate
 B05XA03 Sodium chlorure
 B05XA04 Ammonium chlorure
@@ -705,48 +946,189 @@
 B05XA16 Solutions cardioplégiques
 B05XA17 Potassium acétate
 B05XA30 Associations d'électrolytes
-B05XA31 Électrolytes en association avec d'autres substances
-B05XB Acides aminés
-B05XB01 Arginine chlorhydrate
+B05XA31 Électrolytes en association avec d'autres substances</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B05</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>B05X Additifs pour solutions intraveineuses</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>B05XB Acides aminés</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>B05XB01 Arginine chlorhydrate
 B05XB02 Alanyl glutamine
-B05XB03 Lysine
-B05XC Vitamines
-compte notamment Cernévit, Vitalipide, etc.
-B05XX Autres additifs pour solutions intraveineuses
-B05XX02 Trométamol</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Classe_ATC_B05</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B05</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+B05XB03 Lysine</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B05</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>B05X Additifs pour solutions intraveineuses</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>B05XC Vitamines</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>compte notamment Cernévit, Vitalipide, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B05</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>B05X Additifs pour solutions intraveineuses</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>B05XX Autres additifs pour solutions intraveineuses</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>B05XX02 Trométamol</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B05</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>B05Z Solutions pour hémodialyse et hémofiltration</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>B05ZA Concentrés pour hémodialyse
-compte notamment Bibag 650 g, etc.
-B05ZB Solutions pour hémofiltration
-compte notamment Accusol, Hémosol, Hospasol, Multibic, Phoxilium Phosphate, Prismasol Potassium, etc.</t>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>B05ZA Concentrés pour hémodialyse</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>compte notamment Bibag 650 g, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B05</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>B05Z Solutions pour hémodialyse et hémofiltration</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>B05ZB Solutions pour hémofiltration</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>compte notamment Accusol, Hémosol, Hospasol, Multibic, Phoxilium Phosphate, Prismasol Potassium, etc.</t>
         </is>
       </c>
     </row>
